--- a/biology/Médecine/Andreas_von_Gundelsheimer/Andreas_von_Gundelsheimer.xlsx
+++ b/biology/Médecine/Andreas_von_Gundelsheimer/Andreas_von_Gundelsheimer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andreas von Gundelsheimer est un médecin allemand, né en 1668 à Feuchtwangen et mort le 17 juin 1715 à Stettin.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils d’un pasteur, il étudie à Ansbach puis à Altdorf où il est diplômé en médecine en 1688. Il accompagne un riche commerçant en Italie. Il pratique ensuite à Paris où il se lie d’amitié avec Joseph Pitton de Tournefort (1656-1708) et l’accompagne durant son voyage de la Grèce à l’Iran[1]. Ils se séparent à Constantinople et il retourne en Allemagne.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils d’un pasteur, il étudie à Ansbach puis à Altdorf où il est diplômé en médecine en 1688. Il accompagne un riche commerçant en Italie. Il pratique ensuite à Paris où il se lie d’amitié avec Joseph Pitton de Tournefort (1656-1708) et l’accompagne durant son voyage de la Grèce à l’Iran. Ils se séparent à Constantinople et il retourne en Allemagne.
 Gundelsheimer sert comme médecin militaire avant de se retirer à Berlin. Le prince électeur Frédéric Ier (1657-1713) le prend comme conseiller et l’anoblit. Il est à l’origine de la création du musée anatomique de Berlin. Il accompagne Frédéric-Guillaume Ier (1688-1740) durant la campagne de Poméranie et durant laquelle il décède.
 </t>
         </is>
